--- a/Ducument/New Microsoft Excel Worksheet.xlsx
+++ b/Ducument/New Microsoft Excel Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43e69fe3b798304f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IOT\Ducument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3773F28D-EE67-4B71-A298-6FC1E2BEEC92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350423F1-032F-45D3-880F-154AAC0CAA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T2 - Bình Phong Thạnh" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Tên</t>
   </si>
@@ -169,12 +169,79 @@
   </si>
   <si>
     <t xml:space="preserve">Tổng </t>
+  </si>
+  <si>
+    <t>Vật tư lắp tủ điện tưới công viên (7 tủ)
+(Gồm: Bờ kè 3 tủ, CV Trường N.T.Bình, CV Hùng Vương, Trường THPT 2 tủ)</t>
+  </si>
+  <si>
+    <t>Phốt cánh 38/56</t>
+  </si>
+  <si>
+    <t>Phốt vòng bi</t>
+  </si>
+  <si>
+    <t>Bạc đạn 6307 SKF</t>
+  </si>
+  <si>
+    <t>Bạc đạn 6309 SKF</t>
+  </si>
+  <si>
+    <t>Lưỡi cắt</t>
+  </si>
+  <si>
+    <t>Sơn bóng phủ mạch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phích điện cái </t>
+  </si>
+  <si>
+    <t>Mũi khoan 10mm + 12mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại bàn </t>
+  </si>
+  <si>
+    <t>Thay trạm Cái Cát</t>
+  </si>
+  <si>
+    <t>Bảo dưỡng bơm cấp 2 18.5kW trạm Cái Cát</t>
+  </si>
+  <si>
+    <t>Béc súng tưới cây</t>
+  </si>
+  <si>
+    <t>Ống LDPE 5x7mm</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>mét</t>
+  </si>
+  <si>
+    <t>Khởi thủy LDPE 6mm</t>
+  </si>
+  <si>
+    <t>Béc tưới gốc xòe</t>
+  </si>
+  <si>
+    <t>Quạt tản nhiệt</t>
+  </si>
+  <si>
+    <t>viên</t>
+  </si>
+  <si>
+    <t>Pin CR2302 Energizer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,9 +348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -291,9 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -309,6 +370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -319,10 +387,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -330,9 +395,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,29 +709,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -664,37 +739,37 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>2250000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>D3*C3</f>
         <v>2250000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2750000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>D4*C4</f>
         <v>5500000</v>
       </c>
@@ -703,280 +778,280 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>155000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E16" si="0">D5*C5</f>
         <v>155000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>117000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>234000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>35000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>135000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>32000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>18000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>77000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>77000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>47000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>8000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>525000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>525000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>36000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>221000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>221000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>10000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>150000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>20000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>C18*D18</f>
         <v>80000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>5000</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f>C19*D19</f>
         <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="22">
+      <c r="A20" s="6"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="13">
         <f>SUM(E3:E19)</f>
         <v>9593000</v>
       </c>
@@ -991,82 +1066,82 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>10</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>77000</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f>D23*C23</f>
         <v>770000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>135000</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>D24*C24</f>
         <v>1350000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>10</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>255000</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f>D25*C25</f>
         <v>2550000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="22">
+      <c r="A26" s="6"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13">
         <f>SUM(E23:E25)</f>
         <v>4670000</v>
       </c>
@@ -1081,420 +1156,420 @@
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>1230000</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" ref="E29:E40" si="1">D29*C29</f>
         <v>3690000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>2</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>1200000</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>3600000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>3</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>155000</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>465000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>7</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>117000</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>819000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>35000</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>105000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>6</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>135000</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <f t="shared" si="1"/>
         <v>405000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>7</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>18000</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>8</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>3</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>77000</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>231000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>9</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>3</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>47000</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>10</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>7</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>8000</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>11</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
         <v>1250000</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f t="shared" si="1"/>
         <v>1250000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>12</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>36000</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <f t="shared" si="1"/>
         <v>108000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>13</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>2</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>14</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="22">
+      <c r="A43" s="6"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="13">
         <f>SUM(E29:E40)</f>
         <v>10924000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>1</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
         <v>320000</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <f>D46*C46</f>
         <v>320000</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>2</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
         <v>532000</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <f>D47*C47</f>
         <v>532000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>3</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
         <v>131000</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <f>D48*C48</f>
         <v>131000</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>4</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
         <v>346000</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <f>D49*C49</f>
         <v>346000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="10">
         <v>5</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="10">
         <v>6</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>2</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="22">
+      <c r="A52" s="10"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13">
         <f>SUM(E46:E51)</f>
         <v>1329000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="13">
         <f>SUM(E26,E20,E43,E52)</f>
         <v>26516000</v>
       </c>
@@ -1518,14 +1593,636 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3751B19-14A2-4458-9F5A-58BEA7A43E4C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1230000</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" ref="F3:F21" si="0">E3*C3</f>
+        <v>8610000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1200000</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="0"/>
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="25">
+        <v>155000</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>1085000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="25">
+        <v>117000</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>351000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="25">
+        <v>35000</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="25">
+        <v>135000</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>945000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="25">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="25">
+        <v>77000</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="25">
+        <v>47000</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="25">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2800000</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="0"/>
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="25">
+        <v>36000</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="0"/>
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="25">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="25">
+        <v>35000</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1925000</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1900</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6">
+        <v>200</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="25">
+        <v>420</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6">
+        <v>200</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="25">
+        <v>26000</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="26">
+        <f>SUM(F3:F21)</f>
+        <v>33620000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26">
+        <v>660000</v>
+      </c>
+      <c r="F24" s="26">
+        <f>E24*C24</f>
+        <v>660000</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26">
+        <v>40000</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" ref="F25:F32" si="1">E25*C25</f>
+        <v>40000</v>
+      </c>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
+        <v>140000</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="26">
+        <v>220000</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="26">
+        <v>5000</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
+        <v>28000</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="26">
+        <v>12000</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
+        <v>85000</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>380000</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="26">
+        <f>SUM(F24:F35)</f>
+        <v>1698000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G24:G27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>